--- a/Especial_Uniandes_2023/2. Cursos y Justificación/Tabla cursos.xlsx
+++ b/Especial_Uniandes_2023/2. Cursos y Justificación/Tabla cursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\Especial_Uniandes_2023\2. Cursos y Justificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B331F49-745D-4B4C-BBDE-86050A0D2E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8BE1C7-376D-49CF-8FA4-EC4210C4121C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{79E6B6E8-2283-4874-8159-A333ECA8A106}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Curso</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Nivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\textit{\textbf{Formación}}: Maestría en Metodología de la Investigación, Universidad de Liverpool, Inglaterra. </t>
   </si>
   <si>
     <t xml:space="preserve">\textit{\textbf{Formación}}: Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) con énfasis en métodos de investigación. </t>
@@ -108,6 +105,12 @@
     <t>\vfill \vfill Posgrado (Doctorado)</t>
   </si>
   <si>
+    <t>\vfill \vfill Educación Continua</t>
+  </si>
+  <si>
+    <t>\vfill \vfill Electiva</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">\vfill \vfill Diseño y análisis
 </t>
@@ -122,11 +125,15 @@
       </rPr>
       <t>I</t>
     </r>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">\vfill \vfill Diseño y análisis
-</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
     </r>
     <r>
       <rPr>
@@ -140,22 +147,31 @@
     </r>
   </si>
   <si>
-    <t>\textit{\textbf{Experiencia}}: \textcolor{red}{El propósito del curso es presentar al estudiante una panorámica básica de las problemáticas relacionadas con el lenguaje y, en particular, con su estructura, funcionamiento, uso producción, comprensión y adquisición. Se abordarán tanto estudios clásicos como desarrollos recientes en el área de la lingüística y la psicolingüística.}</t>
-  </si>
-  <si>
-    <t>\vfill \vfill Bases evolutivas del comportamiento</t>
-  </si>
-  <si>
-    <t>\vfill \vfill Evolución cognitiva</t>
-  </si>
-  <si>
-    <t>\vfill \vfill Educación Continua</t>
-  </si>
-  <si>
-    <t>\vfill \vfill Electiva</t>
-  </si>
-  <si>
-    <t>\vfill \vfill Métodos Reproducibles y Ciencia Abierta</t>
+    <t>\vfill \vfill Psicometría</t>
+  </si>
+  <si>
+    <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador y asesor metodológico, tanto en Colombia como en el Reino Unido. Dirección y codirección de múltiples trabajos de grado con importantes componentes psicométricos.</t>
+  </si>
+  <si>
+    <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador en comunicación vocal, incluyendo los aspectos adaptativos, culturales y del desarrollo necesarios para la aparición y adquisición del lenguaje. He publicado artículos y revisiones de la literatura al respecto en revistas de alto impacto relacionados con el tema, incluyendo una teoría sobre el rol lenguaje y la musicalidad humanas dentro del contexto de la comunicación vocal humana (e.g., \href{https://doi.org/10.1098/rstb.2020.0391}{Leongómez, et al, 2022}).</t>
+  </si>
+  <si>
+    <t>\textit{\textbf{Formación}}: Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) con trabajos de investigación transdisciplinares centrados en el lenguaje humano, su desarrollo y su relación con otras formas de comunicación vocal.</t>
+  </si>
+  <si>
+    <t>\textit{\textbf{Experiencia}}: En mi trabajo investigativo he implementado diversas prácticas de Ciencia Abierta y métodos reproducibles de análisis, y durante los últimos años he trabajado en estrategias de divulgación para la apropiación de principios y métodos abiertos, incluyendo el canal de \textit{YouTube \href{https://www.youtube.com/@InvestigacionAbierta}{\color{yellow}{Investigación Abierta}}}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textit{\textbf{Experiencia y formación}}: 12 años de experiencia como investigador en comportamiento humano. He publicado múltiples artículos al respecto (ver Hoja de Vida). Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) enmarcados desde perspectivas evolutivas del comportamiento y cognición humanos. </t>
+  </si>
+  <si>
+    <t>\vfill Evolución cognitiva</t>
+  </si>
+  <si>
+    <t>Métodos Reproducibles y Ciencia Abierta</t>
+  </si>
+  <si>
+    <t>Bases evolutivas del comportamiento</t>
   </si>
 </sst>
 </file>
@@ -192,18 +208,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -314,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -334,24 +344,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -361,16 +362,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,14 +690,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810CEBA7-1363-4AE0-94C3-C2CFA1A440D7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
@@ -704,134 +705,134 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Especial_Uniandes_2023/2. Cursos y Justificación/Tabla cursos.xlsx
+++ b/Especial_Uniandes_2023/2. Cursos y Justificación/Tabla cursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\Especial_Uniandes_2023\2. Cursos y Justificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8BE1C7-376D-49CF-8FA4-EC4210C4121C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B53E59-0CD7-495F-81F5-50DB2C7F8159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{79E6B6E8-2283-4874-8159-A333ECA8A106}"/>
+    <workbookView xWindow="1500" yWindow="1485" windowWidth="21600" windowHeight="11835" xr2:uid="{79E6B6E8-2283-4874-8159-A333ECA8A106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,52 +50,9 @@
     <t xml:space="preserve">\textit{\textbf{Formación}}: Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) con énfasis en métodos de investigación. </t>
   </si>
   <si>
-    <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador, asesor y docente a nivel de pregrado y posgrado de asignaturas relacionadas con métodos cuantitativos, tanto en Colombia como en el Reino Unido. Dirección y codirección de múltiples trabajos de grado, incluyendo dos trabajos doctorales, y experiencia en el análisis y modelamiento estadístico de estudios como se puede ver reflejado la mayoría de mis publicaciones. Creación de materiales educativos y didácticos (guías, videos y \textit{apps}) para la enseñanza de conceptos estadísticos y la adopción de buenas prácticas de investigación cuantitativa.</t>
-  </si>
-  <si>
     <t>\vfill \vfill Métodos cuantitativos avanzados</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">\vfill \vfill Curso Metodológico </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">\vfill \vfill Proceso Básico </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Lenguaje)</t>
-    </r>
-  </si>
-  <si>
     <t>\vfill \vfill Pregrado</t>
   </si>
   <si>
@@ -111,67 +68,43 @@
     <t>\vfill \vfill Electiva</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">\vfill \vfill Diseño y análisis
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>II</t>
-    </r>
-  </si>
-  <si>
     <t>\vfill \vfill Psicometría</t>
   </si>
   <si>
     <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador y asesor metodológico, tanto en Colombia como en el Reino Unido. Dirección y codirección de múltiples trabajos de grado con importantes componentes psicométricos.</t>
   </si>
   <si>
-    <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador en comunicación vocal, incluyendo los aspectos adaptativos, culturales y del desarrollo necesarios para la aparición y adquisición del lenguaje. He publicado artículos y revisiones de la literatura al respecto en revistas de alto impacto relacionados con el tema, incluyendo una teoría sobre el rol lenguaje y la musicalidad humanas dentro del contexto de la comunicación vocal humana (e.g., \href{https://doi.org/10.1098/rstb.2020.0391}{Leongómez, et al, 2022}).</t>
-  </si>
-  <si>
     <t>\textit{\textbf{Formación}}: Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) con trabajos de investigación transdisciplinares centrados en el lenguaje humano, su desarrollo y su relación con otras formas de comunicación vocal.</t>
   </si>
   <si>
-    <t>\textit{\textbf{Experiencia}}: En mi trabajo investigativo he implementado diversas prácticas de Ciencia Abierta y métodos reproducibles de análisis, y durante los últimos años he trabajado en estrategias de divulgación para la apropiación de principios y métodos abiertos, incluyendo el canal de \textit{YouTube \href{https://www.youtube.com/@InvestigacionAbierta}{\color{yellow}{Investigación Abierta}}}.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\textit{\textbf{Experiencia y formación}}: 12 años de experiencia como investigador en comportamiento humano. He publicado múltiples artículos al respecto (ver Hoja de Vida). Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) enmarcados desde perspectivas evolutivas del comportamiento y cognición humanos. </t>
-  </si>
-  <si>
     <t>\vfill Evolución cognitiva</t>
   </si>
   <si>
-    <t>Métodos Reproducibles y Ciencia Abierta</t>
-  </si>
-  <si>
-    <t>Bases evolutivas del comportamiento</t>
+    <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador en comunicación vocal, incluyendo los aspectos adaptativos, culturales y del desarrollo necesarios para la aparición y adquisición del lenguaje. He publicado artículos y revisiones de la literatura al respecto en revistas de alto impacto relacionados con el tema, incluyendo una teoría sobre el rol lenguaje y la musicalidad humanas dentro del contexto de la comunicación vocal humana \autocite[e.g., ][]{leongomezMusicalityHumanVocal2022}.</t>
+  </si>
+  <si>
+    <t>\textit{\textbf{Experiencia}}: 12 años de experiencia como investigador, asesor y docente a nivel de pregrado y posgrado de asignaturas relacionadas con métodos cuantitativos, tanto en Colombia como en el Reino Unido. Dirección y codirección de múltiples trabajos de grado, incluyendo dos trabajos doctorales, y experiencia en el análisis y modelamiento estadístico de estudios como se puede ver reflejado la mayoría de mis publicaciones. Creación de materiales educativos y didácticos \autocite[guías, videos y \textit{apps}; e.g., ][]{leongomezAnalisisPoderEstadistico2020,leongomezMetaanalisisCorrelacionesMetaregresion2023,investigacionabiertaHacerMetaanalisisJamovi2021,leongomezPoderEstadisticoTamano2020,investigacionabiertaHacerMetaanalisisR2023,leongomezPowerSimulateCorrelacion2023a,leongomezPowerSimulatePruebaIndependiente2023,leongomezPowerSimulatePruebaPareada2023} para la enseñanza de conceptos estadísticos y la adopción de buenas prácticas de investigación cuantitativa.</t>
+  </si>
+  <si>
+    <t>\vfill Bases evolutivas del comportamiento</t>
+  </si>
+  <si>
+    <t>\vfill Métodos Reproducibles y Ciencia Abierta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textit{\textbf{Experiencia y formación}}: 12 años de experiencia como investigador en comportamiento humano. He publicado múltiples artículos al respecto (ver Hoja de Vida). Maestría (Universidad de Liverpool, Inglaterra) y Doctorado (Universidad de Stirling, Escocia) enmarcados desde perspectivas evolutivas del comportamiento y cognición humanos \autocite[e.g., ][]{leongomezPerceivedDifferencesSocial2017,leongomezVocalModulationCourtship2014,kleisnerPredictingStrengthAggressive2021,leongomezContextualisingCourtshipExploring2021,leongomezVoiceModulationOrigin2021}. </t>
+  </si>
+  <si>
+    <t>\textit{\textbf{Experiencia}}: En mi trabajo investigativo he implementado diversas prácticas de Ciencia Abierta y métodos reproducibles de análisis, y durante los últimos años he trabajado en estrategias de divulgación para la apropiación de principios y métodos abiertos \autocite[e.g., ][]{leongomezCienciaAbierta}, incluyendo el canal de \textit{YouTube \href{https://www.youtube.com/@InvestigacionAbierta}{Investigación Abierta}}.</t>
+  </si>
+  <si>
+    <t>\vfill \vfill Proceso Básico: Lenguaje</t>
+  </si>
+  <si>
+    <t>\vfill \vfill Curso Metodológico (cuantitativo)</t>
+  </si>
+  <si>
+    <t>\vfill \vfill Diseño y análisis I y II</t>
   </si>
 </sst>
 </file>
@@ -202,7 +135,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -332,15 +264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -359,20 +282,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,149 +616,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810CEBA7-1363-4AE0-94C3-C2CFA1A440D7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
+    <row r="8" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
